--- a/Concept_Dropbox/Dialogues/items.xlsx
+++ b/Concept_Dropbox/Dialogues/items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\STT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\Bounce-Game\Concept_Dropbox\Dialogues\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,9 +167,6 @@
     <t>You'll make a spectacle of yourself if you go out wearing these.  Seriously, the tan lines are not worth wearing these.</t>
   </si>
   <si>
-    <t>Classic and timeless shades that blends together form and function.</t>
-  </si>
-  <si>
     <t>Essential for maintaining proper control of your optic beams.</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Yellow Ski Goggles</t>
+  </si>
+  <si>
+    <t>Classic and timeless shades that blend together form and function.</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -609,10 +609,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -620,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -763,63 +763,63 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
         <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -840,18 +840,18 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
         <v>50</v>
-      </c>
-      <c r="F59" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" t="s">
         <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Concept_Dropbox/Dialogues/items.xlsx
+++ b/Concept_Dropbox/Dialogues/items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\GitHub\Bounce-Game\Concept_Dropbox\Dialogues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\STT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>File</t>
   </si>
@@ -245,7 +245,34 @@
     <t>Yellow Ski Goggles</t>
   </si>
   <si>
-    <t>Classic and timeless shades that blend together form and function.</t>
+    <t>Classic and timeless shades that blends together form and function. You can't help but scream YEAAAAAAAAAAAAAAH!!!!!!!! Every time you put these on.</t>
+  </si>
+  <si>
+    <t>Add some dimension to your life by wearing these.</t>
+  </si>
+  <si>
+    <t>We're not sure if the it's the glasses that help you see better or the squinting that these glasses make you do that helps you see better.</t>
+  </si>
+  <si>
+    <t>Take pride in being called a "four-eyes" with these outrageous glasses.</t>
+  </si>
+  <si>
+    <t>Your future is bright. Protect your eyes while time traveling by wearing these.</t>
+  </si>
+  <si>
+    <t>I spy with my little eye…something red.</t>
+  </si>
+  <si>
+    <t>You can't enter Emerald City without these.</t>
+  </si>
+  <si>
+    <t>These are actually prescription sunglasses. Even though we don't need glasses, we would probably wear them all the time too, just because they look so cool.</t>
+  </si>
+  <si>
+    <t>The color of royalty. The perfect way to let everyone know that you're the king of awesomeness.</t>
+  </si>
+  <si>
+    <t>These are cool, but uninspiring. I honestly wish I had had something witty to say about these, but I honestly have nothing for these.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +593,7 @@
   <dimension ref="B2:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +641,9 @@
       <c r="D8" t="s">
         <v>65</v>
       </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -765,6 +795,9 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -773,6 +806,9 @@
       <c r="D38" t="s">
         <v>68</v>
       </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -781,6 +817,9 @@
       <c r="D40" t="s">
         <v>69</v>
       </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -789,6 +828,9 @@
       <c r="D42" t="s">
         <v>67</v>
       </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -797,6 +839,9 @@
       <c r="D44" t="s">
         <v>66</v>
       </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -805,6 +850,9 @@
       <c r="D46" t="s">
         <v>63</v>
       </c>
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -813,6 +861,9 @@
       <c r="D48" t="s">
         <v>71</v>
       </c>
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -820,6 +871,9 @@
       </c>
       <c r="D50" t="s">
         <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
